--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Woodstock's Pizza Pe</t>
@@ -456,6 +455,75 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Receipt scanned automatically</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Woodstock's Pizza Pe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Receipt scanned automatically</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Woodstock's Pizza Pe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Receipt scanned automatically</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Woodstock's Pizza Pe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Receipt scanned automatically</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Receipt scanned automatically</t>
         </is>
